--- a/tests/djmax/moD Jam MAX.xlsx
+++ b/tests/djmax/moD Jam MAX.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1161">
   <si>
     <t>moD Jam MAX - Rules</t>
   </si>
@@ -2871,94 +2871,97 @@
     <t>SON OF SUN</t>
   </si>
   <si>
+    <t>Hosoe Shinji</t>
+  </si>
+  <si>
+    <t>SON OF SUN ~Extended Mix~</t>
+  </si>
+  <si>
+    <t>SuperSonic</t>
+  </si>
+  <si>
+    <t>Sweet Shining Shooting Star</t>
+  </si>
+  <si>
+    <t>The Last Dance</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Airwave</t>
+  </si>
+  <si>
+    <t>BEE-U-TIFUL</t>
+  </si>
+  <si>
+    <t>FIRST AID</t>
+  </si>
+  <si>
+    <t>Burn it Down</t>
+  </si>
+  <si>
+    <t>P'sycho-Remi</t>
+  </si>
+  <si>
+    <t>Cosmic Fantastic Lovesong</t>
+  </si>
+  <si>
+    <t>Cozy Quilt</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Dream of Winds</t>
+  </si>
+  <si>
+    <t>Dual Strikers</t>
+  </si>
+  <si>
+    <t>Eternal Fantasy</t>
+  </si>
+  <si>
+    <t>La Campanella: Nu Rave</t>
+  </si>
+  <si>
+    <t>Love is Beautiful</t>
+  </si>
+  <si>
+    <t>MonoXide</t>
+  </si>
+  <si>
+    <t>Nova ~Mr.Funky Remix~</t>
+  </si>
+  <si>
+    <t>Put'Em Up</t>
+  </si>
+  <si>
+    <t>Puzzler</t>
+  </si>
+  <si>
+    <t>Rage Of Demon</t>
+  </si>
+  <si>
+    <t>Say it from your heart</t>
+  </si>
+  <si>
+    <t>Sweet Dream</t>
+  </si>
+  <si>
+    <t>The Guilty</t>
+  </si>
+  <si>
+    <t>Thor ~Extended Mix~</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>XLASHER</t>
+  </si>
+  <si>
     <t>Hoseo Shinji</t>
-  </si>
-  <si>
-    <t>SON OF SUN ~Extended Mix~</t>
-  </si>
-  <si>
-    <t>SuperSonic</t>
-  </si>
-  <si>
-    <t>Sweet Shining Shooting Star</t>
-  </si>
-  <si>
-    <t>The Last Dance</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Airwave</t>
-  </si>
-  <si>
-    <t>BEE-U-TIFUL</t>
-  </si>
-  <si>
-    <t>FIRST AID</t>
-  </si>
-  <si>
-    <t>Burn it Down</t>
-  </si>
-  <si>
-    <t>P'sycho-Remi</t>
-  </si>
-  <si>
-    <t>Cosmic Fantastic Lovesong</t>
-  </si>
-  <si>
-    <t>Cozy Quilt</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>Dream of Winds</t>
-  </si>
-  <si>
-    <t>Dual Strikers</t>
-  </si>
-  <si>
-    <t>Eternal Fantasy</t>
-  </si>
-  <si>
-    <t>La Campanella: Nu Rave</t>
-  </si>
-  <si>
-    <t>Love is Beautiful</t>
-  </si>
-  <si>
-    <t>MonoXide</t>
-  </si>
-  <si>
-    <t>Nova ~Mr.Funky Remix~</t>
-  </si>
-  <si>
-    <t>Put'Em Up</t>
-  </si>
-  <si>
-    <t>Puzzler</t>
-  </si>
-  <si>
-    <t>Rage Of Demon</t>
-  </si>
-  <si>
-    <t>Say it from your heart</t>
-  </si>
-  <si>
-    <t>Sweet Dream</t>
-  </si>
-  <si>
-    <t>The Guilty</t>
-  </si>
-  <si>
-    <t>Thor ~Extended Mix~</t>
-  </si>
-  <si>
-    <t>Trip</t>
-  </si>
-  <si>
-    <t>XLASHER</t>
   </si>
   <si>
     <t>Y ~Extended Mix~</t>
@@ -3996,7 +3999,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4347,6 +4350,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5795,6 +5801,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.0"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -6527,7 +6537,7 @@
         <v>965</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>936</v>
+        <v>966</v>
       </c>
       <c r="C23" s="118" t="s">
         <v>5</v>
@@ -6557,7 +6567,7 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>49</v>
@@ -6654,6 +6664,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="19.25"/>
+    <col customWidth="1" min="2" max="2" width="19.5"/>
     <col customWidth="1" min="3" max="3" width="15.25"/>
   </cols>
   <sheetData>
@@ -6693,7 +6705,7 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>77</v>
@@ -6727,7 +6739,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>123</v>
@@ -6761,7 +6773,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>123</v>
@@ -6795,7 +6807,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>157</v>
@@ -6829,7 +6841,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>84</v>
@@ -6863,7 +6875,7 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>363</v>
@@ -6897,7 +6909,7 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>61</v>
@@ -6931,7 +6943,7 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>102</v>
@@ -6965,7 +6977,7 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>72</v>
@@ -6999,7 +7011,7 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>72</v>
@@ -7033,7 +7045,7 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>77</v>
@@ -7067,7 +7079,7 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>681</v>
@@ -7101,7 +7113,7 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>86</v>
@@ -7135,7 +7147,7 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>826</v>
@@ -7169,7 +7181,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>49</v>
@@ -7203,7 +7215,7 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>49</v>
@@ -7237,10 +7249,10 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C18" s="118" t="s">
         <v>5</v>
@@ -7271,7 +7283,7 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>681</v>
@@ -7305,10 +7317,10 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C20" s="118" t="s">
         <v>5</v>
@@ -7339,7 +7351,7 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>213</v>
@@ -7373,7 +7385,7 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>61</v>
@@ -7385,7 +7397,7 @@
         <v>426</v>
       </c>
       <c r="E22" s="112" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
@@ -7411,10 +7423,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C23" s="118" t="s">
         <v>5</v>
@@ -7445,7 +7457,7 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>98</v>
@@ -7479,7 +7491,7 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>69</v>
@@ -7513,7 +7525,7 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>216</v>
@@ -7547,10 +7559,10 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C27" s="118" t="s">
         <v>5</v>
@@ -7581,7 +7593,7 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>157</v>
@@ -7615,7 +7627,7 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>269</v>
@@ -7649,12 +7661,12 @@
     </row>
     <row r="30">
       <c r="A30" s="70" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B30" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="130" t="s">
+      <c r="C30" s="131" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="115"/>
@@ -7683,12 +7695,12 @@
     </row>
     <row r="31">
       <c r="A31" s="117" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C31" s="126" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C31" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="46"/>
@@ -7717,16 +7729,16 @@
     </row>
     <row r="32">
       <c r="A32" s="117" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C32" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C32" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="46"/>
-      <c r="E32" s="123"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
@@ -7751,12 +7763,12 @@
     </row>
     <row r="33">
       <c r="A33" s="117" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C33" s="126" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C33" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="46"/>
@@ -7785,12 +7797,12 @@
     </row>
     <row r="34">
       <c r="A34" s="117" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C34" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C34" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="46"/>
@@ -7819,12 +7831,12 @@
     </row>
     <row r="35">
       <c r="A35" s="117" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C35" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C35" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="46"/>
@@ -7853,12 +7865,12 @@
     </row>
     <row r="36">
       <c r="A36" s="117" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C36" s="126" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C36" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="46"/>
@@ -7887,12 +7899,12 @@
     </row>
     <row r="37">
       <c r="A37" s="117" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C37" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C37" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="46"/>
@@ -7924,9 +7936,9 @@
         <v>312</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C38" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C38" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="46"/>
@@ -7955,12 +7967,12 @@
     </row>
     <row r="39">
       <c r="A39" s="117" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C39" s="126" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C39" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="46"/>
@@ -7989,12 +8001,12 @@
     </row>
     <row r="40">
       <c r="A40" s="117" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C40" s="126" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C40" s="127" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="46"/>
@@ -8022,108 +8034,108 @@
       <c r="Z40" s="46"/>
     </row>
     <row r="41">
-      <c r="A41" s="131" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B41" s="132" t="s">
+      <c r="A41" s="132" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B41" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="126" t="s">
+      <c r="C41" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="133" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="134"/>
-      <c r="P41" s="134"/>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="134"/>
-      <c r="S41" s="134"/>
-      <c r="T41" s="134"/>
-      <c r="U41" s="134"/>
-      <c r="V41" s="134"/>
-      <c r="W41" s="134"/>
-      <c r="X41" s="134"/>
-      <c r="Y41" s="134"/>
-      <c r="Z41" s="134"/>
+      <c r="E41" s="134" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
+      <c r="T41" s="135"/>
+      <c r="U41" s="135"/>
+      <c r="V41" s="135"/>
+      <c r="W41" s="135"/>
+      <c r="X41" s="135"/>
+      <c r="Y41" s="135"/>
+      <c r="Z41" s="135"/>
     </row>
     <row r="42">
-      <c r="A42" s="131" t="s">
+      <c r="A42" s="132" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B42" s="133" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="136"/>
+      <c r="E42" s="134" t="s">
         <v>1018</v>
       </c>
-      <c r="B42" s="132" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="126" t="s">
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="135"/>
+      <c r="O42" s="135"/>
+      <c r="P42" s="135"/>
+      <c r="Q42" s="135"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="135"/>
+      <c r="T42" s="135"/>
+      <c r="U42" s="135"/>
+      <c r="V42" s="135"/>
+      <c r="W42" s="135"/>
+      <c r="X42" s="135"/>
+      <c r="Y42" s="135"/>
+      <c r="Z42" s="135"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="137" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B43" s="138" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="134"/>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="134"/>
-      <c r="W42" s="134"/>
-      <c r="X42" s="134"/>
-      <c r="Y42" s="134"/>
-      <c r="Z42" s="134"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="136" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B43" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="138" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="139"/>
-      <c r="P43" s="139"/>
-      <c r="Q43" s="139"/>
-      <c r="R43" s="139"/>
-      <c r="S43" s="139"/>
-      <c r="T43" s="139"/>
-      <c r="U43" s="139"/>
-      <c r="V43" s="139"/>
-      <c r="W43" s="139"/>
-      <c r="X43" s="139"/>
-      <c r="Y43" s="139"/>
-      <c r="Z43" s="139"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="139" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="140"/>
+      <c r="P43" s="140"/>
+      <c r="Q43" s="140"/>
+      <c r="R43" s="140"/>
+      <c r="S43" s="140"/>
+      <c r="T43" s="140"/>
+      <c r="U43" s="140"/>
+      <c r="V43" s="140"/>
+      <c r="W43" s="140"/>
+      <c r="X43" s="140"/>
+      <c r="Y43" s="140"/>
+      <c r="Z43" s="140"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C31:C43">
@@ -8207,6 +8219,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.38"/>
+    <col customWidth="1" min="2" max="2" width="8.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -8243,7 +8259,7 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>77</v>
@@ -8276,7 +8292,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>123</v>
@@ -8309,7 +8325,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>49</v>
@@ -8342,7 +8358,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>269</v>
@@ -8375,10 +8391,10 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>5</v>
@@ -8408,7 +8424,7 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>61</v>
@@ -8420,7 +8436,7 @@
         <v>426</v>
       </c>
       <c r="E7" s="112" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
@@ -8445,7 +8461,7 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>118</v>
@@ -8478,7 +8494,7 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>49</v>
@@ -8510,301 +8526,301 @@
       <c r="Y9" s="46"/>
     </row>
     <row r="10">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="142"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
     </row>
     <row r="11">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="142"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
     </row>
     <row r="12">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142"/>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="142"/>
-      <c r="Y12" s="142"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
     </row>
     <row r="13">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="142"/>
-      <c r="X13" s="142"/>
-      <c r="Y13" s="142"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="143"/>
     </row>
     <row r="14">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="142"/>
-      <c r="W14" s="142"/>
-      <c r="X14" s="142"/>
-      <c r="Y14" s="142"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="143"/>
     </row>
     <row r="15">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="142"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
     </row>
     <row r="16">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="142"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
     </row>
     <row r="17">
-      <c r="A17" s="140"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="142"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="142"/>
-      <c r="Y17" s="142"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
     </row>
     <row r="18">
-      <c r="A18" s="140"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="142"/>
-      <c r="W18" s="142"/>
-      <c r="X18" s="142"/>
-      <c r="Y18" s="142"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
     </row>
     <row r="19">
-      <c r="A19" s="140"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="142"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="143"/>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="143"/>
     </row>
     <row r="20">
-      <c r="A20" s="140"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C20">
@@ -8851,6 +8867,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="11.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -8860,7 +8880,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -8886,107 +8906,107 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="143" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B2" s="137" t="s">
+      <c r="A2" s="144" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="138" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
     </row>
     <row r="3">
-      <c r="A3" s="145" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B3" s="132" t="s">
+      <c r="A3" s="146" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" s="133" t="s">
         <v>269</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
+      <c r="X3" s="147"/>
+      <c r="Y3" s="147"/>
     </row>
     <row r="4">
-      <c r="A4" s="143" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="144" t="s">
         <v>1032</v>
       </c>
+      <c r="B4" s="138" t="s">
+        <v>1033</v>
+      </c>
       <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>269</v>
@@ -9018,295 +9038,295 @@
       <c r="Y5" s="46"/>
     </row>
     <row r="6">
-      <c r="A6" s="145" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B6" s="132" t="s">
+      <c r="A6" s="146" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B6" s="133" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
     </row>
     <row r="7">
-      <c r="A7" s="143" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B7" s="137" t="s">
+      <c r="A7" s="144" t="s">
         <v>1036</v>
       </c>
+      <c r="B7" s="138" t="s">
+        <v>1037</v>
+      </c>
       <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145"/>
     </row>
     <row r="8">
-      <c r="A8" s="143" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B8" s="137" t="s">
+      <c r="A8" s="144" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B8" s="138" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
     </row>
     <row r="9">
-      <c r="A9" s="145" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B9" s="132" t="s">
+      <c r="A9" s="146" t="s">
         <v>1039</v>
       </c>
+      <c r="B9" s="133" t="s">
+        <v>1040</v>
+      </c>
       <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
     </row>
     <row r="10">
-      <c r="A10" s="145" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B10" s="132" t="s">
+      <c r="A10" s="146" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B10" s="133" t="s">
         <v>269</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="146"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
     </row>
     <row r="11">
-      <c r="A11" s="143" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B11" s="137" t="s">
+      <c r="A11" s="144" t="s">
         <v>1042</v>
       </c>
+      <c r="B11" s="138" t="s">
+        <v>1043</v>
+      </c>
       <c r="C11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
     </row>
     <row r="12">
-      <c r="A12" s="145" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B12" s="132" t="s">
+      <c r="A12" s="146" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B12" s="133" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
     </row>
     <row r="13">
-      <c r="A13" s="143" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B13" s="137" t="s">
+      <c r="A13" s="144" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B13" s="138" t="s">
         <v>723</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
     </row>
     <row r="14">
-      <c r="A14" s="147"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C13">
@@ -9358,6 +9378,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="23.88"/>
+    <col customWidth="1" min="2" max="2" width="28.0"/>
     <col customWidth="1" min="3" max="3" width="15.38"/>
   </cols>
   <sheetData>
@@ -9369,7 +9391,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -9397,7 +9419,7 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>605</v>
@@ -9407,7 +9429,7 @@
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="112" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -9443,7 +9465,7 @@
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="112" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
@@ -9469,7 +9491,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>605</v>
@@ -9479,7 +9501,7 @@
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="112" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
@@ -9505,7 +9527,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>86</v>
@@ -9539,7 +9561,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>557</v>
@@ -9573,10 +9595,10 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>5</v>
@@ -9641,12 +9663,12 @@
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="149" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="115"/>
@@ -9674,42 +9696,42 @@
       <c r="Z9" s="115"/>
     </row>
     <row r="10">
-      <c r="A10" s="149" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B10" s="150" t="s">
+      <c r="A10" s="150" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B10" s="151" t="s">
         <v>605</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
     </row>
     <row r="11">
       <c r="A11" s="116" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B11" s="117" t="s">
         <v>605</v>
@@ -9742,174 +9764,174 @@
       <c r="Z11" s="46"/>
     </row>
     <row r="12">
-      <c r="A12" s="136" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B12" s="137" t="s">
+      <c r="A12" s="137" t="s">
         <v>1058</v>
       </c>
+      <c r="B12" s="138" t="s">
+        <v>1059</v>
+      </c>
       <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
     </row>
     <row r="13">
-      <c r="A13" s="131" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B13" s="132" t="s">
+      <c r="A13" s="132" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B13" s="133" t="s">
         <v>723</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
     </row>
     <row r="14">
-      <c r="A14" s="131" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B14" s="132" t="s">
+      <c r="A14" s="132" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B14" s="133" t="s">
         <v>605</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
     </row>
     <row r="15">
-      <c r="A15" s="136" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B15" s="137" t="s">
+      <c r="A15" s="137" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B15" s="138" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
     </row>
     <row r="16">
-      <c r="A16" s="151" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B16" s="152" t="s">
+      <c r="A16" s="152" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B16" s="153" t="s">
         <v>605</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
     </row>
     <row r="17">
       <c r="A17" s="116" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="117" t="s">
         <v>77</v>
@@ -9942,1779 +9964,1779 @@
       <c r="Z17" s="46"/>
     </row>
     <row r="18">
-      <c r="A18" s="131" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B18" s="132" t="s">
+      <c r="A18" s="132" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>716</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="134"/>
-      <c r="Y18" s="134"/>
-      <c r="Z18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
     </row>
     <row r="19">
-      <c r="A19" s="151" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B19" s="152" t="s">
-        <v>1053</v>
+      <c r="A19" s="152" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B19" s="153" t="s">
+        <v>1054</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
     </row>
     <row r="20">
-      <c r="A20" s="151" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B20" s="152" t="s">
+      <c r="A20" s="152" t="s">
         <v>1067</v>
       </c>
+      <c r="B20" s="153" t="s">
+        <v>1068</v>
+      </c>
       <c r="C20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148"/>
     </row>
     <row r="21">
-      <c r="A21" s="151" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B21" s="152" t="s">
+      <c r="A21" s="152" t="s">
         <v>1069</v>
       </c>
+      <c r="B21" s="153" t="s">
+        <v>1070</v>
+      </c>
       <c r="C21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
     </row>
     <row r="22">
-      <c r="A22" s="151" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B22" s="152" t="s">
+      <c r="A22" s="152" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B22" s="153" t="s">
         <v>123</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
     </row>
     <row r="23">
-      <c r="A23" s="131" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B23" s="132" t="s">
+      <c r="A23" s="132" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B23" s="133" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134"/>
-      <c r="Z23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="135"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
     </row>
     <row r="24">
-      <c r="A24" s="151" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B24" s="152" t="s">
+      <c r="A24" s="152" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B24" s="153" t="s">
         <v>605</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
     </row>
     <row r="25">
-      <c r="A25" s="151" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B25" s="152" t="s">
+      <c r="A25" s="152" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B25" s="153" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
     </row>
     <row r="26">
       <c r="A26" s="116" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B26" s="152" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B26" s="153" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
     </row>
     <row r="27">
-      <c r="A27" s="151" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B27" s="152" t="s">
+      <c r="A27" s="152" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B27" s="153" t="s">
         <v>605</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
     </row>
     <row r="28">
-      <c r="A28" s="153" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B28" s="154" t="s">
+      <c r="A28" s="154" t="s">
         <v>1077</v>
       </c>
+      <c r="B28" s="155" t="s">
+        <v>1078</v>
+      </c>
       <c r="C28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="157"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="157"/>
     </row>
     <row r="29">
-      <c r="A29" s="153" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B29" s="154" t="s">
+      <c r="A29" s="154" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B29" s="155" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="157"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="157"/>
+      <c r="Z29" s="157"/>
     </row>
     <row r="30">
-      <c r="A30" s="151" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B30" s="152" t="s">
+      <c r="A30" s="152" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B30" s="153" t="s">
         <v>723</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
     </row>
     <row r="31">
-      <c r="A31" s="151" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B31" s="152" t="s">
+      <c r="A31" s="152" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B31" s="153" t="s">
         <v>557</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
     </row>
     <row r="32">
-      <c r="A32" s="131" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B32" s="132" t="s">
+      <c r="A32" s="132" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B32" s="133" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
     </row>
     <row r="33">
-      <c r="A33" s="151" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B33" s="152" t="s">
+      <c r="A33" s="152" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B33" s="153" t="s">
         <v>716</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
     </row>
     <row r="34">
       <c r="A34" s="116" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B34" s="152" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B34" s="153" t="s">
         <v>723</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="147"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="147"/>
-      <c r="X34" s="147"/>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="148"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="148"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="148"/>
     </row>
     <row r="35">
-      <c r="A35" s="151" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B35" s="152" t="s">
+      <c r="A35" s="152" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B35" s="153" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="147"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="147"/>
-      <c r="Z35" s="147"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="148"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="148"/>
+      <c r="U35" s="148"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="148"/>
+      <c r="Z35" s="148"/>
     </row>
     <row r="36">
-      <c r="A36" s="151" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B36" s="152" t="s">
+      <c r="A36" s="152" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B36" s="153" t="s">
         <v>605</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="147"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="147"/>
-      <c r="Z36" s="147"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
+      <c r="Q36" s="148"/>
+      <c r="R36" s="148"/>
+      <c r="S36" s="148"/>
+      <c r="T36" s="148"/>
+      <c r="U36" s="148"/>
+      <c r="V36" s="148"/>
+      <c r="W36" s="148"/>
+      <c r="X36" s="148"/>
+      <c r="Y36" s="148"/>
+      <c r="Z36" s="148"/>
     </row>
     <row r="37">
-      <c r="A37" s="151" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B37" s="152" t="s">
+      <c r="A37" s="152" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B37" s="153" t="s">
         <v>605</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="147"/>
-      <c r="P37" s="147"/>
-      <c r="Q37" s="147"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="147"/>
-      <c r="T37" s="147"/>
-      <c r="U37" s="147"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="147"/>
-      <c r="X37" s="147"/>
-      <c r="Y37" s="147"/>
-      <c r="Z37" s="147"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="148"/>
+      <c r="S37" s="148"/>
+      <c r="T37" s="148"/>
+      <c r="U37" s="148"/>
+      <c r="V37" s="148"/>
+      <c r="W37" s="148"/>
+      <c r="X37" s="148"/>
+      <c r="Y37" s="148"/>
+      <c r="Z37" s="148"/>
     </row>
     <row r="38">
-      <c r="A38" s="151" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B38" s="152" t="s">
+      <c r="A38" s="152" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B38" s="153" t="s">
         <v>605</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147"/>
-      <c r="Y38" s="147"/>
-      <c r="Z38" s="147"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="148"/>
+      <c r="P38" s="148"/>
+      <c r="Q38" s="148"/>
+      <c r="R38" s="148"/>
+      <c r="S38" s="148"/>
+      <c r="T38" s="148"/>
+      <c r="U38" s="148"/>
+      <c r="V38" s="148"/>
+      <c r="W38" s="148"/>
+      <c r="X38" s="148"/>
+      <c r="Y38" s="148"/>
+      <c r="Z38" s="148"/>
     </row>
     <row r="39">
-      <c r="A39" s="151" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B39" s="152" t="s">
+      <c r="A39" s="152" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B39" s="153" t="s">
         <v>723</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147"/>
-      <c r="O39" s="147"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="147"/>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="147"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="147"/>
-      <c r="Z39" s="147"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="148"/>
+      <c r="S39" s="148"/>
+      <c r="T39" s="148"/>
+      <c r="U39" s="148"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="148"/>
     </row>
     <row r="40">
-      <c r="A40" s="151" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B40" s="152" t="s">
+      <c r="A40" s="152" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B40" s="153" t="s">
         <v>605</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="147"/>
-      <c r="O40" s="147"/>
-      <c r="P40" s="147"/>
-      <c r="Q40" s="147"/>
-      <c r="R40" s="147"/>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="147"/>
-      <c r="V40" s="147"/>
-      <c r="W40" s="147"/>
-      <c r="X40" s="147"/>
-      <c r="Y40" s="147"/>
-      <c r="Z40" s="147"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
+      <c r="N40" s="148"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="148"/>
+      <c r="R40" s="148"/>
+      <c r="S40" s="148"/>
+      <c r="T40" s="148"/>
+      <c r="U40" s="148"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
+      <c r="X40" s="148"/>
+      <c r="Y40" s="148"/>
+      <c r="Z40" s="148"/>
     </row>
     <row r="41">
-      <c r="A41" s="158" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B41" s="159" t="s">
+      <c r="A41" s="159" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B41" s="160" t="s">
         <v>605</v>
       </c>
-      <c r="C41" s="148" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="160"/>
-      <c r="L41" s="160"/>
-      <c r="M41" s="160"/>
-      <c r="N41" s="160"/>
-      <c r="O41" s="160"/>
-      <c r="P41" s="160"/>
-      <c r="Q41" s="160"/>
-      <c r="R41" s="160"/>
-      <c r="S41" s="160"/>
-      <c r="T41" s="160"/>
-      <c r="U41" s="160"/>
-      <c r="V41" s="160"/>
-      <c r="W41" s="160"/>
-      <c r="X41" s="160"/>
-      <c r="Y41" s="160"/>
-      <c r="Z41" s="160"/>
+      <c r="C41" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="161"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="161"/>
+      <c r="M41" s="161"/>
+      <c r="N41" s="161"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="161"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="161"/>
+      <c r="S41" s="161"/>
+      <c r="T41" s="161"/>
+      <c r="U41" s="161"/>
+      <c r="V41" s="161"/>
+      <c r="W41" s="161"/>
+      <c r="X41" s="161"/>
+      <c r="Y41" s="161"/>
+      <c r="Z41" s="161"/>
     </row>
     <row r="42">
-      <c r="A42" s="161" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147"/>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="147"/>
-      <c r="R42" s="147"/>
-      <c r="S42" s="147"/>
-      <c r="T42" s="147"/>
-      <c r="U42" s="147"/>
-      <c r="V42" s="147"/>
-      <c r="W42" s="147"/>
-      <c r="X42" s="147"/>
-      <c r="Y42" s="147"/>
-      <c r="Z42" s="147"/>
+      <c r="A42" s="162" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B42" s="153"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
+      <c r="N42" s="148"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="148"/>
+      <c r="R42" s="148"/>
+      <c r="S42" s="148"/>
+      <c r="T42" s="148"/>
+      <c r="U42" s="148"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="148"/>
+      <c r="Z42" s="148"/>
     </row>
     <row r="43">
       <c r="A43" s="117" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B43" s="152" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B43" s="153" t="s">
         <v>557</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
+      <c r="N43" s="148"/>
+      <c r="O43" s="148"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="148"/>
+      <c r="R43" s="148"/>
+      <c r="S43" s="148"/>
+      <c r="T43" s="148"/>
+      <c r="U43" s="148"/>
+      <c r="V43" s="148"/>
+      <c r="W43" s="148"/>
+      <c r="X43" s="148"/>
+      <c r="Y43" s="148"/>
+      <c r="Z43" s="148"/>
     </row>
     <row r="44">
       <c r="A44" s="117" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B44" s="152" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B44" s="153" t="s">
         <v>557</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
-      <c r="N44" s="147"/>
-      <c r="O44" s="147"/>
-      <c r="P44" s="147"/>
-      <c r="Q44" s="147"/>
-      <c r="R44" s="147"/>
-      <c r="S44" s="147"/>
-      <c r="T44" s="147"/>
-      <c r="U44" s="147"/>
-      <c r="V44" s="147"/>
-      <c r="W44" s="147"/>
-      <c r="X44" s="147"/>
-      <c r="Y44" s="147"/>
-      <c r="Z44" s="147"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="148"/>
+      <c r="L44" s="148"/>
+      <c r="M44" s="148"/>
+      <c r="N44" s="148"/>
+      <c r="O44" s="148"/>
+      <c r="P44" s="148"/>
+      <c r="Q44" s="148"/>
+      <c r="R44" s="148"/>
+      <c r="S44" s="148"/>
+      <c r="T44" s="148"/>
+      <c r="U44" s="148"/>
+      <c r="V44" s="148"/>
+      <c r="W44" s="148"/>
+      <c r="X44" s="148"/>
+      <c r="Y44" s="148"/>
+      <c r="Z44" s="148"/>
     </row>
     <row r="45">
       <c r="A45" s="117" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B45" s="152" t="s">
         <v>1095</v>
+      </c>
+      <c r="B45" s="153" t="s">
+        <v>1096</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147"/>
-      <c r="Q45" s="147"/>
-      <c r="R45" s="147"/>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="147"/>
-      <c r="X45" s="147"/>
-      <c r="Y45" s="147"/>
-      <c r="Z45" s="147"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="148"/>
+      <c r="K45" s="148"/>
+      <c r="L45" s="148"/>
+      <c r="M45" s="148"/>
+      <c r="N45" s="148"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="148"/>
+      <c r="R45" s="148"/>
+      <c r="S45" s="148"/>
+      <c r="T45" s="148"/>
+      <c r="U45" s="148"/>
+      <c r="V45" s="148"/>
+      <c r="W45" s="148"/>
+      <c r="X45" s="148"/>
+      <c r="Y45" s="148"/>
+      <c r="Z45" s="148"/>
     </row>
     <row r="46">
       <c r="A46" s="117" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B46" s="153" t="s">
         <v>1096</v>
-      </c>
-      <c r="B46" s="152" t="s">
-        <v>1095</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="147"/>
-      <c r="S46" s="147"/>
-      <c r="T46" s="147"/>
-      <c r="U46" s="147"/>
-      <c r="V46" s="147"/>
-      <c r="W46" s="147"/>
-      <c r="X46" s="147"/>
-      <c r="Y46" s="147"/>
-      <c r="Z46" s="147"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="148"/>
+      <c r="S46" s="148"/>
+      <c r="T46" s="148"/>
+      <c r="U46" s="148"/>
+      <c r="V46" s="148"/>
+      <c r="W46" s="148"/>
+      <c r="X46" s="148"/>
+      <c r="Y46" s="148"/>
+      <c r="Z46" s="148"/>
     </row>
     <row r="47">
       <c r="A47" s="117" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B47" s="152" t="s">
-        <v>1095</v>
+        <v>1098</v>
+      </c>
+      <c r="B47" s="153" t="s">
+        <v>1096</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="147"/>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="147"/>
-      <c r="R47" s="147"/>
-      <c r="S47" s="147"/>
-      <c r="T47" s="147"/>
-      <c r="U47" s="147"/>
-      <c r="V47" s="147"/>
-      <c r="W47" s="147"/>
-      <c r="X47" s="147"/>
-      <c r="Y47" s="147"/>
-      <c r="Z47" s="147"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="148"/>
+      <c r="N47" s="148"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="148"/>
+      <c r="R47" s="148"/>
+      <c r="S47" s="148"/>
+      <c r="T47" s="148"/>
+      <c r="U47" s="148"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="148"/>
+      <c r="X47" s="148"/>
+      <c r="Y47" s="148"/>
+      <c r="Z47" s="148"/>
     </row>
     <row r="48">
       <c r="A48" s="117" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B48" s="152" t="s">
-        <v>1058</v>
+        <v>1099</v>
+      </c>
+      <c r="B48" s="153" t="s">
+        <v>1059</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="147"/>
-      <c r="E48" s="157" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
-      <c r="J48" s="147"/>
-      <c r="K48" s="147"/>
-      <c r="L48" s="147"/>
-      <c r="M48" s="147"/>
-      <c r="N48" s="147"/>
-      <c r="O48" s="147"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="147"/>
-      <c r="S48" s="147"/>
-      <c r="T48" s="147"/>
-      <c r="U48" s="147"/>
-      <c r="V48" s="147"/>
-      <c r="W48" s="147"/>
-      <c r="X48" s="147"/>
-      <c r="Y48" s="147"/>
-      <c r="Z48" s="147"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="158" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
+      <c r="P48" s="148"/>
+      <c r="Q48" s="148"/>
+      <c r="R48" s="148"/>
+      <c r="S48" s="148"/>
+      <c r="T48" s="148"/>
+      <c r="U48" s="148"/>
+      <c r="V48" s="148"/>
+      <c r="W48" s="148"/>
+      <c r="X48" s="148"/>
+      <c r="Y48" s="148"/>
+      <c r="Z48" s="148"/>
     </row>
     <row r="49">
-      <c r="A49" s="163" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B49" s="152" t="s">
+      <c r="A49" s="164" t="s">
         <v>1101</v>
+      </c>
+      <c r="B49" s="153" t="s">
+        <v>1102</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="147"/>
-      <c r="E49" s="157" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F49" s="147"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147"/>
-      <c r="N49" s="147"/>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="147"/>
-      <c r="R49" s="147"/>
-      <c r="S49" s="147"/>
-      <c r="T49" s="147"/>
-      <c r="U49" s="147"/>
-      <c r="V49" s="147"/>
-      <c r="W49" s="147"/>
-      <c r="X49" s="147"/>
-      <c r="Y49" s="147"/>
-      <c r="Z49" s="147"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="158" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="148"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="148"/>
+      <c r="N49" s="148"/>
+      <c r="O49" s="148"/>
+      <c r="P49" s="148"/>
+      <c r="Q49" s="148"/>
+      <c r="R49" s="148"/>
+      <c r="S49" s="148"/>
+      <c r="T49" s="148"/>
+      <c r="U49" s="148"/>
+      <c r="V49" s="148"/>
+      <c r="W49" s="148"/>
+      <c r="X49" s="148"/>
+      <c r="Y49" s="148"/>
+      <c r="Z49" s="148"/>
     </row>
     <row r="50">
       <c r="A50" s="117" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B50" s="152" t="s">
         <v>1103</v>
+      </c>
+      <c r="B50" s="153" t="s">
+        <v>1104</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="147"/>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-      <c r="V50" s="147"/>
-      <c r="W50" s="147"/>
-      <c r="X50" s="147"/>
-      <c r="Y50" s="147"/>
-      <c r="Z50" s="147"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="148"/>
+      <c r="N50" s="148"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148"/>
+      <c r="Q50" s="148"/>
+      <c r="R50" s="148"/>
+      <c r="S50" s="148"/>
+      <c r="T50" s="148"/>
+      <c r="U50" s="148"/>
+      <c r="V50" s="148"/>
+      <c r="W50" s="148"/>
+      <c r="X50" s="148"/>
+      <c r="Y50" s="148"/>
+      <c r="Z50" s="148"/>
     </row>
     <row r="51">
       <c r="A51" s="117" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B51" s="153" t="s">
         <v>1104</v>
-      </c>
-      <c r="B51" s="152" t="s">
-        <v>1103</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="147"/>
-      <c r="L51" s="147"/>
-      <c r="M51" s="147"/>
-      <c r="N51" s="147"/>
-      <c r="O51" s="147"/>
-      <c r="P51" s="147"/>
-      <c r="Q51" s="147"/>
-      <c r="R51" s="147"/>
-      <c r="S51" s="147"/>
-      <c r="T51" s="147"/>
-      <c r="U51" s="147"/>
-      <c r="V51" s="147"/>
-      <c r="W51" s="147"/>
-      <c r="X51" s="147"/>
-      <c r="Y51" s="147"/>
-      <c r="Z51" s="147"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="148"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="148"/>
+      <c r="N51" s="148"/>
+      <c r="O51" s="148"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="148"/>
+      <c r="R51" s="148"/>
+      <c r="S51" s="148"/>
+      <c r="T51" s="148"/>
+      <c r="U51" s="148"/>
+      <c r="V51" s="148"/>
+      <c r="W51" s="148"/>
+      <c r="X51" s="148"/>
+      <c r="Y51" s="148"/>
+      <c r="Z51" s="148"/>
     </row>
     <row r="52">
       <c r="A52" s="117" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B52" s="152" t="s">
         <v>1106</v>
+      </c>
+      <c r="B52" s="153" t="s">
+        <v>1107</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="147"/>
-      <c r="W52" s="147"/>
-      <c r="X52" s="147"/>
-      <c r="Y52" s="147"/>
-      <c r="Z52" s="147"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="148"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="148"/>
+      <c r="K52" s="148"/>
+      <c r="L52" s="148"/>
+      <c r="M52" s="148"/>
+      <c r="N52" s="148"/>
+      <c r="O52" s="148"/>
+      <c r="P52" s="148"/>
+      <c r="Q52" s="148"/>
+      <c r="R52" s="148"/>
+      <c r="S52" s="148"/>
+      <c r="T52" s="148"/>
+      <c r="U52" s="148"/>
+      <c r="V52" s="148"/>
+      <c r="W52" s="148"/>
+      <c r="X52" s="148"/>
+      <c r="Y52" s="148"/>
+      <c r="Z52" s="148"/>
     </row>
     <row r="53">
       <c r="A53" s="117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B53" s="153" t="s">
         <v>1107</v>
-      </c>
-      <c r="B53" s="152" t="s">
-        <v>1106</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="147"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="147"/>
-      <c r="M53" s="147"/>
-      <c r="N53" s="147"/>
-      <c r="O53" s="147"/>
-      <c r="P53" s="147"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147"/>
-      <c r="T53" s="147"/>
-      <c r="U53" s="147"/>
-      <c r="V53" s="147"/>
-      <c r="W53" s="147"/>
-      <c r="X53" s="147"/>
-      <c r="Y53" s="147"/>
-      <c r="Z53" s="147"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="148"/>
+      <c r="L53" s="148"/>
+      <c r="M53" s="148"/>
+      <c r="N53" s="148"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="148"/>
+      <c r="R53" s="148"/>
+      <c r="S53" s="148"/>
+      <c r="T53" s="148"/>
+      <c r="U53" s="148"/>
+      <c r="V53" s="148"/>
+      <c r="W53" s="148"/>
+      <c r="X53" s="148"/>
+      <c r="Y53" s="148"/>
+      <c r="Z53" s="148"/>
     </row>
     <row r="54">
       <c r="A54" s="117" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B54" s="152" t="s">
-        <v>1106</v>
+        <v>1109</v>
+      </c>
+      <c r="B54" s="153" t="s">
+        <v>1107</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="147"/>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-      <c r="V54" s="147"/>
-      <c r="W54" s="147"/>
-      <c r="X54" s="147"/>
-      <c r="Y54" s="147"/>
-      <c r="Z54" s="147"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="148"/>
+      <c r="N54" s="148"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="148"/>
+      <c r="R54" s="148"/>
+      <c r="S54" s="148"/>
+      <c r="T54" s="148"/>
+      <c r="U54" s="148"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
     </row>
     <row r="55">
       <c r="A55" s="117" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B55" s="152" t="s">
-        <v>1106</v>
+        <v>1110</v>
+      </c>
+      <c r="B55" s="153" t="s">
+        <v>1107</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="147"/>
-      <c r="K55" s="147"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="147"/>
-      <c r="N55" s="147"/>
-      <c r="O55" s="147"/>
-      <c r="P55" s="147"/>
-      <c r="Q55" s="147"/>
-      <c r="R55" s="147"/>
-      <c r="S55" s="147"/>
-      <c r="T55" s="147"/>
-      <c r="U55" s="147"/>
-      <c r="V55" s="147"/>
-      <c r="W55" s="147"/>
-      <c r="X55" s="147"/>
-      <c r="Y55" s="147"/>
-      <c r="Z55" s="147"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="148"/>
+      <c r="K55" s="148"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="148"/>
+      <c r="N55" s="148"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="148"/>
+      <c r="R55" s="148"/>
+      <c r="S55" s="148"/>
+      <c r="T55" s="148"/>
+      <c r="U55" s="148"/>
+      <c r="V55" s="148"/>
+      <c r="W55" s="148"/>
+      <c r="X55" s="148"/>
+      <c r="Y55" s="148"/>
+      <c r="Z55" s="148"/>
     </row>
     <row r="56">
       <c r="A56" s="117" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B56" s="152" t="s">
         <v>1111</v>
+      </c>
+      <c r="B56" s="153" t="s">
+        <v>1112</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="147"/>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="147"/>
-      <c r="T56" s="147"/>
-      <c r="U56" s="147"/>
-      <c r="V56" s="147"/>
-      <c r="W56" s="147"/>
-      <c r="X56" s="147"/>
-      <c r="Y56" s="147"/>
-      <c r="Z56" s="147"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="148"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
+      <c r="U56" s="148"/>
+      <c r="V56" s="148"/>
+      <c r="W56" s="148"/>
+      <c r="X56" s="148"/>
+      <c r="Y56" s="148"/>
+      <c r="Z56" s="148"/>
     </row>
     <row r="57">
       <c r="A57" s="117" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B57" s="153" t="s">
         <v>1112</v>
-      </c>
-      <c r="B57" s="152" t="s">
-        <v>1111</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="147"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="147"/>
-      <c r="N57" s="147"/>
-      <c r="O57" s="147"/>
-      <c r="P57" s="147"/>
-      <c r="Q57" s="147"/>
-      <c r="R57" s="147"/>
-      <c r="S57" s="147"/>
-      <c r="T57" s="147"/>
-      <c r="U57" s="147"/>
-      <c r="V57" s="147"/>
-      <c r="W57" s="147"/>
-      <c r="X57" s="147"/>
-      <c r="Y57" s="147"/>
-      <c r="Z57" s="147"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="148"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="148"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="148"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="148"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="148"/>
+      <c r="T57" s="148"/>
+      <c r="U57" s="148"/>
+      <c r="V57" s="148"/>
+      <c r="W57" s="148"/>
+      <c r="X57" s="148"/>
+      <c r="Y57" s="148"/>
+      <c r="Z57" s="148"/>
     </row>
     <row r="58">
       <c r="A58" s="117" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B58" s="152" t="s">
-        <v>1111</v>
+        <v>1114</v>
+      </c>
+      <c r="B58" s="153" t="s">
+        <v>1112</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="147"/>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="147"/>
-      <c r="S58" s="147"/>
-      <c r="T58" s="147"/>
-      <c r="U58" s="147"/>
-      <c r="V58" s="147"/>
-      <c r="W58" s="147"/>
-      <c r="X58" s="147"/>
-      <c r="Y58" s="147"/>
-      <c r="Z58" s="147"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="148"/>
+      <c r="K58" s="148"/>
+      <c r="L58" s="148"/>
+      <c r="M58" s="148"/>
+      <c r="N58" s="148"/>
+      <c r="O58" s="148"/>
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="148"/>
+      <c r="S58" s="148"/>
+      <c r="T58" s="148"/>
+      <c r="U58" s="148"/>
+      <c r="V58" s="148"/>
+      <c r="W58" s="148"/>
+      <c r="X58" s="148"/>
+      <c r="Y58" s="148"/>
+      <c r="Z58" s="148"/>
     </row>
     <row r="59">
       <c r="A59" s="117" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B59" s="152" t="s">
-        <v>1111</v>
+        <v>1115</v>
+      </c>
+      <c r="B59" s="153" t="s">
+        <v>1112</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147"/>
-      <c r="N59" s="147"/>
-      <c r="O59" s="147"/>
-      <c r="P59" s="147"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="147"/>
-      <c r="S59" s="147"/>
-      <c r="T59" s="147"/>
-      <c r="U59" s="147"/>
-      <c r="V59" s="147"/>
-      <c r="W59" s="147"/>
-      <c r="X59" s="147"/>
-      <c r="Y59" s="147"/>
-      <c r="Z59" s="147"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="148"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="148"/>
+      <c r="N59" s="148"/>
+      <c r="O59" s="148"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
+      <c r="S59" s="148"/>
+      <c r="T59" s="148"/>
+      <c r="U59" s="148"/>
+      <c r="V59" s="148"/>
+      <c r="W59" s="148"/>
+      <c r="X59" s="148"/>
+      <c r="Y59" s="148"/>
+      <c r="Z59" s="148"/>
     </row>
     <row r="60">
       <c r="A60" s="117" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B60" s="152" t="s">
-        <v>1111</v>
+        <v>1116</v>
+      </c>
+      <c r="B60" s="153" t="s">
+        <v>1112</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="147"/>
-      <c r="K60" s="147"/>
-      <c r="L60" s="147"/>
-      <c r="M60" s="147"/>
-      <c r="N60" s="147"/>
-      <c r="O60" s="147"/>
-      <c r="P60" s="147"/>
-      <c r="Q60" s="147"/>
-      <c r="R60" s="147"/>
-      <c r="S60" s="147"/>
-      <c r="T60" s="147"/>
-      <c r="U60" s="147"/>
-      <c r="V60" s="147"/>
-      <c r="W60" s="147"/>
-      <c r="X60" s="147"/>
-      <c r="Y60" s="147"/>
-      <c r="Z60" s="147"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="148"/>
+      <c r="N60" s="148"/>
+      <c r="O60" s="148"/>
+      <c r="P60" s="148"/>
+      <c r="Q60" s="148"/>
+      <c r="R60" s="148"/>
+      <c r="S60" s="148"/>
+      <c r="T60" s="148"/>
+      <c r="U60" s="148"/>
+      <c r="V60" s="148"/>
+      <c r="W60" s="148"/>
+      <c r="X60" s="148"/>
+      <c r="Y60" s="148"/>
+      <c r="Z60" s="148"/>
     </row>
     <row r="61">
       <c r="A61" s="117" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B61" s="152" t="s">
         <v>1117</v>
+      </c>
+      <c r="B61" s="153" t="s">
+        <v>1118</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="147"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="147"/>
-      <c r="N61" s="147"/>
-      <c r="O61" s="147"/>
-      <c r="P61" s="147"/>
-      <c r="Q61" s="147"/>
-      <c r="R61" s="147"/>
-      <c r="S61" s="147"/>
-      <c r="T61" s="147"/>
-      <c r="U61" s="147"/>
-      <c r="V61" s="147"/>
-      <c r="W61" s="147"/>
-      <c r="X61" s="147"/>
-      <c r="Y61" s="147"/>
-      <c r="Z61" s="147"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="148"/>
+      <c r="N61" s="148"/>
+      <c r="O61" s="148"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="148"/>
+      <c r="R61" s="148"/>
+      <c r="S61" s="148"/>
+      <c r="T61" s="148"/>
+      <c r="U61" s="148"/>
+      <c r="V61" s="148"/>
+      <c r="W61" s="148"/>
+      <c r="X61" s="148"/>
+      <c r="Y61" s="148"/>
+      <c r="Z61" s="148"/>
     </row>
     <row r="62">
       <c r="A62" s="117" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B62" s="152" t="s">
         <v>1119</v>
+      </c>
+      <c r="B62" s="153" t="s">
+        <v>1120</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="147"/>
-      <c r="L62" s="147"/>
-      <c r="M62" s="147"/>
-      <c r="N62" s="147"/>
-      <c r="O62" s="147"/>
-      <c r="P62" s="147"/>
-      <c r="Q62" s="147"/>
-      <c r="R62" s="147"/>
-      <c r="S62" s="147"/>
-      <c r="T62" s="147"/>
-      <c r="U62" s="147"/>
-      <c r="V62" s="147"/>
-      <c r="W62" s="147"/>
-      <c r="X62" s="147"/>
-      <c r="Y62" s="147"/>
-      <c r="Z62" s="147"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="148"/>
+      <c r="N62" s="148"/>
+      <c r="O62" s="148"/>
+      <c r="P62" s="148"/>
+      <c r="Q62" s="148"/>
+      <c r="R62" s="148"/>
+      <c r="S62" s="148"/>
+      <c r="T62" s="148"/>
+      <c r="U62" s="148"/>
+      <c r="V62" s="148"/>
+      <c r="W62" s="148"/>
+      <c r="X62" s="148"/>
+      <c r="Y62" s="148"/>
+      <c r="Z62" s="148"/>
     </row>
     <row r="63">
       <c r="A63" s="117" t="s">
-        <v>970</v>
-      </c>
-      <c r="B63" s="152" t="s">
-        <v>1120</v>
+        <v>971</v>
+      </c>
+      <c r="B63" s="153" t="s">
+        <v>1121</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="147"/>
-      <c r="N63" s="147"/>
-      <c r="O63" s="147"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="147"/>
-      <c r="S63" s="147"/>
-      <c r="T63" s="147"/>
-      <c r="U63" s="147"/>
-      <c r="V63" s="147"/>
-      <c r="W63" s="147"/>
-      <c r="X63" s="147"/>
-      <c r="Y63" s="147"/>
-      <c r="Z63" s="147"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="148"/>
+      <c r="N63" s="148"/>
+      <c r="O63" s="148"/>
+      <c r="P63" s="148"/>
+      <c r="Q63" s="148"/>
+      <c r="R63" s="148"/>
+      <c r="S63" s="148"/>
+      <c r="T63" s="148"/>
+      <c r="U63" s="148"/>
+      <c r="V63" s="148"/>
+      <c r="W63" s="148"/>
+      <c r="X63" s="148"/>
+      <c r="Y63" s="148"/>
+      <c r="Z63" s="148"/>
     </row>
     <row r="64">
       <c r="A64" s="117" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B64" s="152" t="s">
-        <v>1119</v>
+        <v>1122</v>
+      </c>
+      <c r="B64" s="153" t="s">
+        <v>1120</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="147"/>
-      <c r="O64" s="147"/>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="147"/>
-      <c r="S64" s="147"/>
-      <c r="T64" s="147"/>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
-      <c r="X64" s="147"/>
-      <c r="Y64" s="147"/>
-      <c r="Z64" s="147"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="148"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="148"/>
+      <c r="N64" s="148"/>
+      <c r="O64" s="148"/>
+      <c r="P64" s="148"/>
+      <c r="Q64" s="148"/>
+      <c r="R64" s="148"/>
+      <c r="S64" s="148"/>
+      <c r="T64" s="148"/>
+      <c r="U64" s="148"/>
+      <c r="V64" s="148"/>
+      <c r="W64" s="148"/>
+      <c r="X64" s="148"/>
+      <c r="Y64" s="148"/>
+      <c r="Z64" s="148"/>
     </row>
     <row r="65">
-      <c r="A65" s="164" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B65" s="159" t="s">
+      <c r="A65" s="165" t="s">
         <v>1123</v>
+      </c>
+      <c r="B65" s="160" t="s">
+        <v>1124</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="147"/>
-      <c r="M65" s="147"/>
-      <c r="N65" s="147"/>
-      <c r="O65" s="147"/>
-      <c r="P65" s="147"/>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="147"/>
-      <c r="S65" s="147"/>
-      <c r="T65" s="147"/>
-      <c r="U65" s="147"/>
-      <c r="V65" s="147"/>
-      <c r="W65" s="147"/>
-      <c r="X65" s="147"/>
-      <c r="Y65" s="147"/>
-      <c r="Z65" s="147"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="148"/>
+      <c r="L65" s="148"/>
+      <c r="M65" s="148"/>
+      <c r="N65" s="148"/>
+      <c r="O65" s="148"/>
+      <c r="P65" s="148"/>
+      <c r="Q65" s="148"/>
+      <c r="R65" s="148"/>
+      <c r="S65" s="148"/>
+      <c r="T65" s="148"/>
+      <c r="U65" s="148"/>
+      <c r="V65" s="148"/>
+      <c r="W65" s="148"/>
+      <c r="X65" s="148"/>
+      <c r="Y65" s="148"/>
+      <c r="Z65" s="148"/>
     </row>
     <row r="66">
-      <c r="A66" s="165" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B66" s="152" t="s">
+      <c r="A66" s="166" t="s">
         <v>1125</v>
+      </c>
+      <c r="B66" s="153" t="s">
+        <v>1126</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="147"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="147"/>
-      <c r="M66" s="147"/>
-      <c r="N66" s="147"/>
-      <c r="O66" s="147"/>
-      <c r="P66" s="147"/>
-      <c r="Q66" s="147"/>
-      <c r="R66" s="147"/>
-      <c r="S66" s="147"/>
-      <c r="T66" s="147"/>
-      <c r="U66" s="147"/>
-      <c r="V66" s="147"/>
-      <c r="W66" s="147"/>
-      <c r="X66" s="147"/>
-      <c r="Y66" s="147"/>
-      <c r="Z66" s="147"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="148"/>
+      <c r="M66" s="148"/>
+      <c r="N66" s="148"/>
+      <c r="O66" s="148"/>
+      <c r="P66" s="148"/>
+      <c r="Q66" s="148"/>
+      <c r="R66" s="148"/>
+      <c r="S66" s="148"/>
+      <c r="T66" s="148"/>
+      <c r="U66" s="148"/>
+      <c r="V66" s="148"/>
+      <c r="W66" s="148"/>
+      <c r="X66" s="148"/>
+      <c r="Y66" s="148"/>
+      <c r="Z66" s="148"/>
     </row>
     <row r="67">
-      <c r="A67" s="165" t="s">
+      <c r="A67" s="166" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B67" s="153" t="s">
         <v>1126</v>
-      </c>
-      <c r="B67" s="152" t="s">
-        <v>1125</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="165" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B68" s="152" t="s">
-        <v>1125</v>
+      <c r="A68" s="166" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B68" s="153" t="s">
+        <v>1126</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="165" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B69" s="152" t="s">
-        <v>1125</v>
+      <c r="A69" s="166" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B69" s="153" t="s">
+        <v>1126</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="165" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B70" s="152" t="s">
-        <v>1125</v>
+      <c r="A70" s="166" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B70" s="153" t="s">
+        <v>1126</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="165" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B71" s="152" t="s">
-        <v>1125</v>
+      <c r="A71" s="166" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B71" s="153" t="s">
+        <v>1126</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="165" t="s">
-        <v>1131</v>
+      <c r="A72" s="166" t="s">
+        <v>1132</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="165" t="s">
+      <c r="A73" s="166" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>1133</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>1132</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="165" t="s">
-        <v>1134</v>
+      <c r="A74" s="166" t="s">
+        <v>1135</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="165" t="s">
-        <v>1135</v>
+      <c r="A75" s="166" t="s">
+        <v>1136</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C75" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="165" t="s">
-        <v>1136</v>
+      <c r="A76" s="166" t="s">
+        <v>1137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="166" t="s">
-        <v>1137</v>
+      <c r="A77" s="167" t="s">
+        <v>1138</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>697</v>
@@ -11724,8 +11746,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="165" t="s">
-        <v>1138</v>
+      <c r="A78" s="166" t="s">
+        <v>1139</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>697</v>
@@ -11735,11 +11757,11 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="165" t="s">
-        <v>1139</v>
+      <c r="A79" s="166" t="s">
+        <v>1140</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>160</v>
@@ -11747,12 +11769,12 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -11838,6 +11860,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="2" max="2" width="15.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -11847,7 +11873,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -11874,44 +11900,44 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
     </row>
     <row r="3">
       <c r="A3" s="116" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>5</v>
@@ -11941,179 +11967,179 @@
       <c r="Z3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="151" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B4" s="152" t="s">
+      <c r="A4" s="152" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B4" s="153" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
     </row>
     <row r="5">
-      <c r="A5" s="136" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>984</v>
+      <c r="A5" s="137" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>985</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
     </row>
     <row r="6">
-      <c r="A6" s="131" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B6" s="132" t="s">
+      <c r="A6" s="132" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B6" s="133" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
     </row>
     <row r="7">
-      <c r="A7" s="151" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B7" s="152" t="s">
+      <c r="A7" s="152" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B7" s="153" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
     </row>
     <row r="8">
-      <c r="A8" s="151" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B8" s="152" t="s">
+      <c r="A8" s="152" t="s">
         <v>1150</v>
       </c>
+      <c r="B8" s="153" t="s">
+        <v>1151</v>
+      </c>
       <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
         <v>340</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>5</v>
@@ -12144,7 +12170,7 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>213</v>
@@ -12177,139 +12203,139 @@
       <c r="Z10" s="46"/>
     </row>
     <row r="11">
-      <c r="A11" s="136" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B11" s="137" t="s">
+      <c r="A11" s="137" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B11" s="138" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
     </row>
     <row r="12">
-      <c r="A12" s="151" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B12" s="152" t="s">
-        <v>984</v>
+      <c r="A12" s="152" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B12" s="153" t="s">
+        <v>985</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="148"/>
     </row>
     <row r="13">
-      <c r="A13" s="151" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B13" s="152" t="s">
+      <c r="A13" s="152" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B13" s="153" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
     </row>
     <row r="14">
-      <c r="A14" s="151" t="s">
-        <v>991</v>
-      </c>
-      <c r="B14" s="152" t="s">
-        <v>1150</v>
+      <c r="A14" s="152" t="s">
+        <v>992</v>
+      </c>
+      <c r="B14" s="153" t="s">
+        <v>1151</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
     </row>
     <row r="15">
       <c r="A15" s="116" t="s">
@@ -12346,45 +12372,45 @@
       <c r="Z15" s="46"/>
     </row>
     <row r="16">
-      <c r="A16" s="151" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B16" s="152" t="s">
+      <c r="A16" s="152" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B16" s="153" t="s">
         <v>363</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>5</v>
@@ -12415,228 +12441,228 @@
     </row>
     <row r="18">
       <c r="A18" s="116" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B18" s="152" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B18" s="153" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B19" s="152" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B19" s="153" t="s">
         <v>723</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
     </row>
     <row r="20">
-      <c r="A20" s="165"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="167"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="168"/>
     </row>
     <row r="21">
-      <c r="A21" s="168"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="167"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="168"/>
     </row>
     <row r="22">
-      <c r="A22" s="140"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="143"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="143"/>
+      <c r="Z22" s="143"/>
     </row>
     <row r="23">
-      <c r="A23" s="165"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="167"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="168"/>
     </row>
     <row r="24">
-      <c r="A24" s="140"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="142"/>
-      <c r="W24" s="142"/>
-      <c r="X24" s="142"/>
-      <c r="Y24" s="142"/>
-      <c r="Z24" s="142"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="143"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="143"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="143"/>
+      <c r="Z24" s="143"/>
     </row>
     <row r="25">
-      <c r="A25" s="165"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="167"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="168"/>
     </row>
     <row r="26">
-      <c r="A26" s="165"/>
-      <c r="B26" s="165"/>
-      <c r="C26" s="167"/>
+      <c r="A26" s="166"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="168"/>
     </row>
     <row r="27">
-      <c r="A27" s="140"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="142"/>
-      <c r="S27" s="142"/>
-      <c r="T27" s="142"/>
-      <c r="U27" s="142"/>
-      <c r="V27" s="142"/>
-      <c r="W27" s="142"/>
-      <c r="X27" s="142"/>
-      <c r="Y27" s="142"/>
-      <c r="Z27" s="142"/>
+      <c r="A27" s="141"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="143"/>
+      <c r="Z27" s="143"/>
     </row>
     <row r="28">
-      <c r="A28" s="165"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="167"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="168"/>
     </row>
     <row r="29">
-      <c r="A29" s="165"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="167"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="168"/>
     </row>
     <row r="30">
-      <c r="A30" s="165"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="167"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="168"/>
     </row>
     <row r="31">
-      <c r="A31" s="168"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="167"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="168"/>
     </row>
     <row r="32">
-      <c r="A32" s="140"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142"/>
-      <c r="R32" s="142"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="142"/>
-      <c r="U32" s="142"/>
-      <c r="V32" s="142"/>
-      <c r="W32" s="142"/>
-      <c r="X32" s="142"/>
-      <c r="Y32" s="142"/>
-      <c r="Z32" s="142"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="143"/>
+      <c r="W32" s="143"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="143"/>
+      <c r="Z32" s="143"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C19">
@@ -12690,7 +12716,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.88"/>
-    <col customWidth="1" min="2" max="2" width="19.5"/>
+    <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="21.75"/>
     <col customWidth="1" min="4" max="4" width="15.5"/>
     <col customWidth="1" min="5" max="5" width="19.5"/>
@@ -24947,6 +24973,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="10.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -26928,6 +26958,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="18.38"/>
+    <col customWidth="1" min="2" max="2" width="15.38"/>
     <col customWidth="1" min="4" max="4" width="18.25"/>
   </cols>
   <sheetData>
@@ -28815,6 +28847,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="22.5"/>
+    <col customWidth="1" min="2" max="2" width="15.25"/>
     <col customWidth="1" min="4" max="4" width="18.5"/>
   </cols>
   <sheetData>
@@ -29791,6 +29825,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="17.75"/>
+    <col customWidth="1" min="2" max="2" width="12.63"/>
     <col customWidth="1" min="4" max="4" width="18.13"/>
   </cols>
   <sheetData>
@@ -30671,10 +30707,10 @@
       <c r="C26" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="123" t="s">
         <v>852</v>
       </c>
-      <c r="E26" s="123"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
@@ -30706,7 +30742,7 @@
       <c r="C27" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="123" t="s">
         <v>855</v>
       </c>
       <c r="E27" s="112" t="s">
@@ -30743,10 +30779,10 @@
       <c r="C28" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="123" t="s">
         <v>859</v>
       </c>
-      <c r="E28" s="123"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
@@ -30778,10 +30814,10 @@
       <c r="C29" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="123" t="s">
         <v>855</v>
       </c>
-      <c r="E29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
@@ -30813,10 +30849,10 @@
       <c r="C30" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="112" t="s">
+      <c r="D30" s="123" t="s">
         <v>859</v>
       </c>
-      <c r="E30" s="123"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
@@ -30914,6 +30950,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.63"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -31479,10 +31519,10 @@
       <c r="Y17" s="46"/>
     </row>
     <row r="18">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="125" t="s">
         <v>879</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="126" t="s">
         <v>880</v>
       </c>
       <c r="C18" s="111" t="s">
@@ -31617,10 +31657,10 @@
       <c r="B22" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="128" t="s">
         <v>885</v>
       </c>
       <c r="E22" s="46"/>
@@ -31688,7 +31728,7 @@
       <c r="C24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="D24" s="129" t="s">
         <v>888</v>
       </c>
       <c r="E24" s="46"/>
@@ -31775,6 +31815,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="11.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -31852,7 +31896,7 @@
       <c r="C3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
@@ -32569,6 +32613,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.63"/>
+    <col customWidth="1" min="2" max="2" width="21.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
@@ -33010,7 +33058,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="46"/>
-      <c r="E14" s="129" t="s">
+      <c r="E14" s="130" t="s">
         <v>933</v>
       </c>
       <c r="F14" s="46"/>
